--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,20 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNS\OneDrive\Visual Studio 2019\Projects\Python\Чат-боты\IRNITU_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1B9FD2-A368-46F9-B66B-D1039B534EB3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2CFDB-BEBF-4CCA-A418-A2D7E775D61E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оборудование" sheetId="1" r:id="rId1"/>
     <sheet name="Инструмент" sheetId="2" r:id="rId2"/>
+    <sheet name="Расходные материалы" sheetId="3" r:id="rId3"/>
+    <sheet name="Расписание кабинета" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Наименование оборудования</t>
   </si>
@@ -63,6 +65,15 @@
   </si>
   <si>
     <t>Нужно заменить жало()</t>
+  </si>
+  <si>
+    <t>Намиенование</t>
+  </si>
+  <si>
+    <t>Доступно к расходованию</t>
+  </si>
+  <si>
+    <t>Еденицы измерения</t>
   </si>
 </sst>
 </file>
@@ -520,7 +531,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A4FF64-8220-4F0E-B3B1-97ECEFCC2750}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -574,4 +585,50 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691CA9D0-032C-4093-A7C0-84155EEC6D0D}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.26953125" customWidth="1"/>
+    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300BEEEA-207B-4C99-9B47-C5EAB5396CE4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BD.xlsx
+++ b/BD.xlsx
@@ -1,106 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNS\OneDrive\Visual Studio 2019\Projects\Python\Чат-боты\IRNITU_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A2CFDB-BEBF-4CCA-A418-A2D7E775D61E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Оборудование" sheetId="1" r:id="rId1"/>
-    <sheet name="Инструмент" sheetId="2" r:id="rId2"/>
-    <sheet name="Расходные материалы" sheetId="3" r:id="rId3"/>
-    <sheet name="Расписание кабинета" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Оборудование" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Инструмент" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Расходные материалы" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Расписание кабинета" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>Наименование оборудования</t>
-  </si>
-  <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Лазер</t>
-  </si>
-  <si>
-    <t>Молоток</t>
-  </si>
-  <si>
-    <t xml:space="preserve">устройство, преобразующее энергию накачки (световую, электрическую, тепловую, химическую и др.) в энергию когерентного, монохроматического, поляризованного и узконаправленного потока излучения. </t>
-  </si>
-  <si>
-    <t>небольшой ударный ручной инструмент, применяемый для забивания гвоздей, разбивания предметов и других работ. В основном изготавливается из стали.</t>
-  </si>
-  <si>
-    <t>Наименование</t>
-  </si>
-  <si>
-    <t>Доступно к использованию</t>
-  </si>
-  <si>
-    <t>Дрель</t>
-  </si>
-  <si>
-    <t>Отвёртка</t>
-  </si>
-  <si>
-    <t>Пила</t>
-  </si>
-  <si>
-    <t>Паяльник</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Нужно заменить жало()</t>
-  </si>
-  <si>
-    <t>Намиенование</t>
-  </si>
-  <si>
-    <t>Доступно к расходованию</t>
-  </si>
-  <si>
-    <t>Еденицы измерения</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -116,28 +55,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Обычный" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -403,232 +333,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" customWidth="1"/>
-    <col min="2" max="2" width="59.54296875" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="27.1796875"/>
+    <col customWidth="1" max="2" min="2" width="59.54296875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование оборудования</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Описание</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="58" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Лазер</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">устройство, преобразующее энергию накачки (световую, электрическую, тепловую, химическую и др.) в энергию когерентного, монохроматического, поляризованного и узконаправленного потока излучения. </t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="47" r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Молоток</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A4FF64-8220-4F0E-B3B1-97ECEFCC2750}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="16.1796875"/>
+    <col customWidth="1" max="2" min="2" width="24.36328125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Наименование</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Доступно к использованию</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Дрель</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Отвёртка</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Пила</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Да</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Паяльник</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Нужно заменить жало()</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691CA9D0-032C-4093-A7C0-84155EEC6D0D}">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.26953125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="14.54296875"/>
+    <col customWidth="1" max="2" min="2" width="24.26953125"/>
+    <col customWidth="1" max="3" min="3" width="19.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Намиенование</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Доступно к расходованию</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Еденицы измерения</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>рас мат 1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>м2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>рас мат 2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>м2</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="16.5" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>рас мат 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>м2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>рас мат 4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>шт.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>рас мат 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>шт.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>рас мат 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>шт.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>рас мат 7</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>см</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>рас мат 8</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>см</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>рас мат 9</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>см</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300BEEEA-207B-4C99-9B47-C5EAB5396CE4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/BD.xlsx
+++ b/BD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12650" windowWidth="22260" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Оборудование" sheetId="1" state="visible" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -365,40 +365,98 @@
     <row customHeight="1" ht="58" r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Лазер</t>
+          <t>Оборудование  № 1</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">устройство, преобразующее энергию накачки (световую, электрическую, тепловую, химическую и др.) в энергию когерентного, монохроматического, поляризованного и узконаправленного потока излучения. </t>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="47" r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Молоток</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Оборудование  № 2</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.5" r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Оборудование  № 3</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.5" r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Оборудование  № 4</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.5" r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Оборудование  № 5</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.5" r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Оборудование  № 6</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.5" r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Оборудование  № 7</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="43.5" r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Оборудование  № 8</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>информацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформацияинформация</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n"/>
@@ -475,10 +533,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
@@ -502,48 +560,63 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Дрель</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Да</t>
+          <t>Инструмент № 1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Отвёртка</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Да</t>
+          <t>Инструмент № 2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Пила</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Да</t>
+          <t>Инструмент № 3</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Паяльник</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Нужно заменить жало()</t>
+          <t>Инструмент № 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Инструмент № 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Инструмент № 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Инструмент № 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Инструмент № 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Инструмент № 9</t>
         </is>
       </c>
     </row>
@@ -561,13 +634,13 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="14.54296875"/>
+    <col customWidth="1" max="1" min="1" width="26.81640625"/>
     <col customWidth="1" max="2" min="2" width="24.26953125"/>
     <col customWidth="1" max="3" min="3" width="19.81640625"/>
   </cols>
@@ -592,11 +665,11 @@
     <row customHeight="1" ht="16.5" r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>рас мат 1</t>
+          <t>расходный материал № 1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -607,7 +680,7 @@
     <row customHeight="1" ht="16.5" r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>рас мат 2</t>
+          <t>расходный материал № 2</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -622,7 +695,7 @@
     <row customHeight="1" ht="16.5" r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>рас мат 3</t>
+          <t>расходный материал № 3</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -637,7 +710,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>рас мат 4</t>
+          <t>расходный материал № 4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -649,7 +722,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>рас мат 5</t>
+          <t>расходный материал № 5</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -664,7 +737,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>рас мат 6</t>
+          <t>расходный материал № 6</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -679,7 +752,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>рас мат 7</t>
+          <t>расходный материал № 7</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -694,11 +767,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>рас мат 8</t>
+          <t>расходный материал № 8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -709,11 +782,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>рас мат 9</t>
+          <t>расходный материал № 9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNS\OneDrive\Visual Studio 2019\Projects\Python\Чат-боты\IRNITU_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_2ED85CB80897056EF98523A31247466EF9839B9E" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{E184088C-DC6E-44ED-853A-6B71024A6E46}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="6_{004BAC0E-B5C2-472C-9421-9C06C711B409}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B538E41-5A62-40FF-933C-AD99FDA6384E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Оборудование" sheetId="1" r:id="rId1"/>
     <sheet name="Инструмент" sheetId="2" r:id="rId2"/>
     <sheet name="Расходные материалы" sheetId="3" r:id="rId3"/>
     <sheet name="Расписание кабинета" sheetId="4" r:id="rId4"/>
+    <sheet name="Информация для посетителей" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
   <si>
     <t>Наименование оборудования</t>
   </si>
@@ -136,34 +137,107 @@
     <t>расходный материал № 9</t>
   </si>
   <si>
+    <t>День\событие</t>
+  </si>
+  <si>
     <t>Время</t>
   </si>
   <si>
     <t>Пн-Чт</t>
   </si>
   <si>
+    <t>09:00-17:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сб      </t>
+  </si>
+  <si>
     <t>10:00-15:30</t>
   </si>
   <si>
+    <t xml:space="preserve">Обед </t>
+  </si>
+  <si>
     <t>13:00-13:30</t>
   </si>
   <si>
-    <t>День\событие</t>
-  </si>
-  <si>
-    <t>09:00-17:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сб      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обед </t>
+    <t>ФИО посетителя</t>
+  </si>
+  <si>
+    <t>ФИО родителя</t>
+  </si>
+  <si>
+    <t>Телефон</t>
+  </si>
+  <si>
+    <t>Номер договора</t>
+  </si>
+  <si>
+    <t>Занятие 1</t>
+  </si>
+  <si>
+    <t>Занятие 2</t>
+  </si>
+  <si>
+    <t>Аудитория</t>
+  </si>
+  <si>
+    <t>ФИО Преподавателя</t>
+  </si>
+  <si>
+    <t>Задолженность по оплате</t>
+  </si>
+  <si>
+    <t>Ближайшая отработка</t>
+  </si>
+  <si>
+    <t>День недели</t>
+  </si>
+  <si>
+    <t xml:space="preserve">День недели </t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Вт</t>
+  </si>
+  <si>
+    <t>Чт</t>
+  </si>
+  <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
+    <t>Петров Петр Петрович</t>
+  </si>
+  <si>
+    <t>Сидоров Сергей Сергеевич</t>
+  </si>
+  <si>
+    <t>ср</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>ЧТ</t>
+  </si>
+  <si>
+    <t>Антонов Антон Антонович</t>
+  </si>
+  <si>
+    <t>Дмитриев Дмитрий Дмитриевич</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -182,15 +256,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -198,16 +278,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -490,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -516,7 +703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -652,7 +839,7 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -718,7 +905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +943,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>50.5</v>
+        <v>51.5</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -800,7 +987,7 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>30</v>
@@ -833,7 +1020,7 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -861,35 +1048,2724 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40882760-FD24-4293-9260-6D4BE81BD92E}">
+  <dimension ref="A1:M632"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" customWidth="1"/>
+    <col min="9" max="9" width="10.54296875" customWidth="1"/>
+    <col min="10" max="10" width="29.453125" customWidth="1"/>
+    <col min="11" max="11" width="23.26953125" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="3"/>
+      <c r="I1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="5"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>12345678</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I3">
+        <v>310</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4">
+        <v>87654321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.5625</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.5625</v>
+      </c>
+      <c r="I4">
+        <v>312</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>11111111</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.625</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="I5">
+        <v>310</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5">
+        <v>1500</v>
+      </c>
+      <c r="L5" s="16">
+        <v>43784</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F7" s="17"/>
+      <c r="H7" s="17"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F8" s="17"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F9" s="17"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="F16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F18" s="17"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F20" s="17"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F21" s="17"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="17"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F23" s="17"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F25" s="17"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="17"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F27" s="17"/>
+      <c r="H27" s="17"/>
+    </row>
+    <row r="28" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F28" s="17"/>
+      <c r="H28" s="17"/>
+    </row>
+    <row r="29" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="17"/>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="17"/>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="31" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F31" s="17"/>
+      <c r="H31" s="17"/>
+    </row>
+    <row r="32" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F32" s="17"/>
+      <c r="H32" s="17"/>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F33" s="17"/>
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F34" s="17"/>
+      <c r="H34" s="17"/>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F35" s="17"/>
+      <c r="H35" s="17"/>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F36" s="17"/>
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F37" s="17"/>
+      <c r="H37" s="17"/>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F38" s="17"/>
+      <c r="H38" s="17"/>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F39" s="17"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F40" s="17"/>
+      <c r="H40" s="17"/>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F41" s="17"/>
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F42" s="17"/>
+      <c r="H42" s="17"/>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F43" s="17"/>
+      <c r="H43" s="17"/>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F44" s="17"/>
+      <c r="H44" s="17"/>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F45" s="17"/>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F46" s="17"/>
+      <c r="H46" s="17"/>
+    </row>
+    <row r="47" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F47" s="17"/>
+      <c r="H47" s="17"/>
+    </row>
+    <row r="48" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F48" s="17"/>
+      <c r="H48" s="17"/>
+    </row>
+    <row r="49" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F49" s="17"/>
+      <c r="H49" s="17"/>
+    </row>
+    <row r="50" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F50" s="17"/>
+      <c r="H50" s="17"/>
+    </row>
+    <row r="51" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F51" s="17"/>
+      <c r="H51" s="17"/>
+    </row>
+    <row r="52" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F52" s="17"/>
+      <c r="H52" s="17"/>
+    </row>
+    <row r="53" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F53" s="17"/>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F54" s="17"/>
+      <c r="H54" s="17"/>
+    </row>
+    <row r="55" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F55" s="17"/>
+      <c r="H55" s="17"/>
+    </row>
+    <row r="56" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F56" s="17"/>
+      <c r="H56" s="17"/>
+    </row>
+    <row r="57" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F57" s="17"/>
+      <c r="H57" s="17"/>
+    </row>
+    <row r="58" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F58" s="17"/>
+      <c r="H58" s="17"/>
+    </row>
+    <row r="59" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F59" s="17"/>
+      <c r="H59" s="17"/>
+    </row>
+    <row r="60" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F60" s="17"/>
+      <c r="H60" s="17"/>
+    </row>
+    <row r="61" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F61" s="17"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F62" s="17"/>
+      <c r="H62" s="17"/>
+    </row>
+    <row r="63" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F63" s="17"/>
+      <c r="H63" s="17"/>
+    </row>
+    <row r="64" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F64" s="17"/>
+      <c r="H64" s="17"/>
+    </row>
+    <row r="65" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F65" s="17"/>
+      <c r="H65" s="17"/>
+    </row>
+    <row r="66" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F66" s="17"/>
+      <c r="H66" s="17"/>
+    </row>
+    <row r="67" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F67" s="17"/>
+      <c r="H67" s="17"/>
+    </row>
+    <row r="68" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F68" s="17"/>
+      <c r="H68" s="17"/>
+    </row>
+    <row r="69" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F69" s="17"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F70" s="17"/>
+      <c r="H70" s="17"/>
+    </row>
+    <row r="71" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F71" s="17"/>
+      <c r="H71" s="17"/>
+    </row>
+    <row r="72" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F72" s="17"/>
+      <c r="H72" s="17"/>
+    </row>
+    <row r="73" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F73" s="17"/>
+      <c r="H73" s="17"/>
+    </row>
+    <row r="74" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F74" s="17"/>
+      <c r="H74" s="17"/>
+    </row>
+    <row r="75" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F75" s="17"/>
+      <c r="H75" s="17"/>
+    </row>
+    <row r="76" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F76" s="17"/>
+      <c r="H76" s="17"/>
+    </row>
+    <row r="77" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F77" s="17"/>
+      <c r="H77" s="17"/>
+    </row>
+    <row r="78" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F78" s="17"/>
+      <c r="H78" s="17"/>
+    </row>
+    <row r="79" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F79" s="17"/>
+      <c r="H79" s="17"/>
+    </row>
+    <row r="80" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F80" s="17"/>
+      <c r="H80" s="17"/>
+    </row>
+    <row r="81" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F81" s="17"/>
+      <c r="H81" s="17"/>
+    </row>
+    <row r="82" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F82" s="17"/>
+      <c r="H82" s="17"/>
+    </row>
+    <row r="83" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F83" s="17"/>
+      <c r="H83" s="17"/>
+    </row>
+    <row r="84" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F84" s="17"/>
+      <c r="H84" s="17"/>
+    </row>
+    <row r="85" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F85" s="17"/>
+      <c r="H85" s="17"/>
+    </row>
+    <row r="86" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F86" s="17"/>
+      <c r="H86" s="17"/>
+    </row>
+    <row r="87" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F87" s="17"/>
+      <c r="H87" s="17"/>
+    </row>
+    <row r="88" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F88" s="17"/>
+      <c r="H88" s="17"/>
+    </row>
+    <row r="89" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F89" s="17"/>
+      <c r="H89" s="17"/>
+    </row>
+    <row r="90" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F90" s="17"/>
+      <c r="H90" s="17"/>
+    </row>
+    <row r="91" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F91" s="17"/>
+      <c r="H91" s="17"/>
+    </row>
+    <row r="92" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F92" s="17"/>
+      <c r="H92" s="17"/>
+    </row>
+    <row r="93" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F93" s="17"/>
+      <c r="H93" s="17"/>
+    </row>
+    <row r="94" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F94" s="17"/>
+      <c r="H94" s="17"/>
+    </row>
+    <row r="95" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F95" s="17"/>
+      <c r="H95" s="17"/>
+    </row>
+    <row r="96" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F96" s="17"/>
+      <c r="H96" s="17"/>
+    </row>
+    <row r="97" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F97" s="17"/>
+      <c r="H97" s="17"/>
+    </row>
+    <row r="98" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F98" s="17"/>
+      <c r="H98" s="17"/>
+    </row>
+    <row r="99" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F99" s="17"/>
+      <c r="H99" s="17"/>
+    </row>
+    <row r="100" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F100" s="17"/>
+      <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F101" s="17"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F102" s="17"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F103" s="17"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F104" s="17"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F105" s="17"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F106" s="17"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F107" s="17"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F108" s="17"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F109" s="17"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F110" s="17"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F111" s="17"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F112" s="17"/>
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F113" s="17"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F114" s="17"/>
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F115" s="17"/>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F116" s="17"/>
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F117" s="17"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F118" s="17"/>
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F119" s="17"/>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F120" s="17"/>
+      <c r="H120" s="17"/>
+    </row>
+    <row r="121" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F121" s="17"/>
+      <c r="H121" s="17"/>
+    </row>
+    <row r="122" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F122" s="17"/>
+      <c r="H122" s="17"/>
+    </row>
+    <row r="123" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F123" s="17"/>
+      <c r="H123" s="17"/>
+    </row>
+    <row r="124" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F124" s="17"/>
+      <c r="H124" s="17"/>
+    </row>
+    <row r="125" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F125" s="17"/>
+      <c r="H125" s="17"/>
+    </row>
+    <row r="126" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F126" s="17"/>
+      <c r="H126" s="17"/>
+    </row>
+    <row r="127" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F127" s="17"/>
+      <c r="H127" s="17"/>
+    </row>
+    <row r="128" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F128" s="17"/>
+      <c r="H128" s="17"/>
+    </row>
+    <row r="129" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F129" s="17"/>
+      <c r="H129" s="17"/>
+    </row>
+    <row r="130" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F130" s="17"/>
+      <c r="H130" s="17"/>
+    </row>
+    <row r="131" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F131" s="17"/>
+      <c r="H131" s="17"/>
+    </row>
+    <row r="132" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F132" s="17"/>
+      <c r="H132" s="17"/>
+    </row>
+    <row r="133" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F133" s="17"/>
+      <c r="H133" s="17"/>
+    </row>
+    <row r="134" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F134" s="17"/>
+      <c r="H134" s="17"/>
+    </row>
+    <row r="135" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F135" s="17"/>
+      <c r="H135" s="17"/>
+    </row>
+    <row r="136" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F136" s="17"/>
+      <c r="H136" s="17"/>
+    </row>
+    <row r="137" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F137" s="17"/>
+      <c r="H137" s="17"/>
+    </row>
+    <row r="138" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F138" s="17"/>
+      <c r="H138" s="17"/>
+    </row>
+    <row r="139" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F139" s="17"/>
+      <c r="H139" s="17"/>
+    </row>
+    <row r="140" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F140" s="17"/>
+      <c r="H140" s="17"/>
+    </row>
+    <row r="141" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F141" s="17"/>
+      <c r="H141" s="17"/>
+    </row>
+    <row r="142" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F142" s="17"/>
+      <c r="H142" s="17"/>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F143" s="17"/>
+      <c r="H143" s="17"/>
+    </row>
+    <row r="144" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F144" s="17"/>
+      <c r="H144" s="17"/>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F145" s="17"/>
+      <c r="H145" s="17"/>
+    </row>
+    <row r="146" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F146" s="17"/>
+      <c r="H146" s="17"/>
+    </row>
+    <row r="147" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F147" s="17"/>
+      <c r="H147" s="17"/>
+    </row>
+    <row r="148" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F148" s="17"/>
+      <c r="H148" s="17"/>
+    </row>
+    <row r="149" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F149" s="17"/>
+      <c r="H149" s="17"/>
+    </row>
+    <row r="150" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F150" s="17"/>
+      <c r="H150" s="17"/>
+    </row>
+    <row r="151" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F151" s="17"/>
+      <c r="H151" s="17"/>
+    </row>
+    <row r="152" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F152" s="17"/>
+      <c r="H152" s="17"/>
+    </row>
+    <row r="153" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F153" s="17"/>
+      <c r="H153" s="17"/>
+    </row>
+    <row r="154" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F154" s="17"/>
+      <c r="H154" s="17"/>
+    </row>
+    <row r="155" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F155" s="17"/>
+      <c r="H155" s="17"/>
+    </row>
+    <row r="156" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F156" s="17"/>
+      <c r="H156" s="17"/>
+    </row>
+    <row r="157" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F157" s="17"/>
+      <c r="H157" s="17"/>
+    </row>
+    <row r="158" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F158" s="17"/>
+      <c r="H158" s="17"/>
+    </row>
+    <row r="159" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F159" s="17"/>
+      <c r="H159" s="17"/>
+    </row>
+    <row r="160" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F160" s="17"/>
+      <c r="H160" s="17"/>
+    </row>
+    <row r="161" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F161" s="17"/>
+      <c r="H161" s="17"/>
+    </row>
+    <row r="162" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F162" s="17"/>
+      <c r="H162" s="17"/>
+    </row>
+    <row r="163" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F163" s="17"/>
+      <c r="H163" s="17"/>
+    </row>
+    <row r="164" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F164" s="17"/>
+      <c r="H164" s="17"/>
+    </row>
+    <row r="165" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F165" s="17"/>
+      <c r="H165" s="17"/>
+    </row>
+    <row r="166" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F166" s="17"/>
+      <c r="H166" s="17"/>
+    </row>
+    <row r="167" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F167" s="17"/>
+      <c r="H167" s="17"/>
+    </row>
+    <row r="168" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F168" s="17"/>
+      <c r="H168" s="17"/>
+    </row>
+    <row r="169" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F169" s="17"/>
+      <c r="H169" s="17"/>
+    </row>
+    <row r="170" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F170" s="17"/>
+      <c r="H170" s="17"/>
+    </row>
+    <row r="171" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F171" s="17"/>
+      <c r="H171" s="17"/>
+    </row>
+    <row r="172" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F172" s="17"/>
+      <c r="H172" s="17"/>
+    </row>
+    <row r="173" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F173" s="17"/>
+      <c r="H173" s="17"/>
+    </row>
+    <row r="174" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F174" s="17"/>
+      <c r="H174" s="17"/>
+    </row>
+    <row r="175" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F175" s="17"/>
+      <c r="H175" s="17"/>
+    </row>
+    <row r="176" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F176" s="17"/>
+      <c r="H176" s="17"/>
+    </row>
+    <row r="177" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F177" s="17"/>
+      <c r="H177" s="17"/>
+    </row>
+    <row r="178" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F178" s="17"/>
+      <c r="H178" s="17"/>
+    </row>
+    <row r="179" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F179" s="17"/>
+      <c r="H179" s="17"/>
+    </row>
+    <row r="180" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F180" s="17"/>
+      <c r="H180" s="17"/>
+    </row>
+    <row r="181" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F181" s="17"/>
+      <c r="H181" s="17"/>
+    </row>
+    <row r="182" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F182" s="17"/>
+      <c r="H182" s="17"/>
+    </row>
+    <row r="183" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F183" s="17"/>
+      <c r="H183" s="17"/>
+    </row>
+    <row r="184" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F184" s="17"/>
+      <c r="H184" s="17"/>
+    </row>
+    <row r="185" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F185" s="17"/>
+      <c r="H185" s="17"/>
+    </row>
+    <row r="186" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F186" s="17"/>
+      <c r="H186" s="17"/>
+    </row>
+    <row r="187" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F187" s="17"/>
+      <c r="H187" s="17"/>
+    </row>
+    <row r="188" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F188" s="17"/>
+      <c r="H188" s="17"/>
+    </row>
+    <row r="189" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F189" s="17"/>
+      <c r="H189" s="17"/>
+    </row>
+    <row r="190" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F190" s="17"/>
+      <c r="H190" s="17"/>
+    </row>
+    <row r="191" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F191" s="17"/>
+      <c r="H191" s="17"/>
+    </row>
+    <row r="192" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F192" s="17"/>
+      <c r="H192" s="17"/>
+    </row>
+    <row r="193" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F193" s="17"/>
+      <c r="H193" s="17"/>
+    </row>
+    <row r="194" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F194" s="17"/>
+      <c r="H194" s="17"/>
+    </row>
+    <row r="195" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F195" s="17"/>
+      <c r="H195" s="17"/>
+    </row>
+    <row r="196" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F196" s="17"/>
+      <c r="H196" s="17"/>
+    </row>
+    <row r="197" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F197" s="17"/>
+      <c r="H197" s="17"/>
+    </row>
+    <row r="198" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F198" s="17"/>
+      <c r="H198" s="17"/>
+    </row>
+    <row r="199" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F199" s="17"/>
+      <c r="H199" s="17"/>
+    </row>
+    <row r="200" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F200" s="17"/>
+      <c r="H200" s="17"/>
+    </row>
+    <row r="201" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F201" s="17"/>
+      <c r="H201" s="17"/>
+    </row>
+    <row r="202" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F202" s="17"/>
+      <c r="H202" s="17"/>
+    </row>
+    <row r="203" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F203" s="17"/>
+      <c r="H203" s="17"/>
+    </row>
+    <row r="204" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F204" s="17"/>
+      <c r="H204" s="17"/>
+    </row>
+    <row r="205" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F205" s="17"/>
+      <c r="H205" s="17"/>
+    </row>
+    <row r="206" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F206" s="17"/>
+      <c r="H206" s="17"/>
+    </row>
+    <row r="207" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F207" s="17"/>
+      <c r="H207" s="17"/>
+    </row>
+    <row r="208" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F208" s="17"/>
+      <c r="H208" s="17"/>
+    </row>
+    <row r="209" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F209" s="17"/>
+      <c r="H209" s="17"/>
+    </row>
+    <row r="210" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F210" s="17"/>
+      <c r="H210" s="17"/>
+    </row>
+    <row r="211" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F211" s="17"/>
+      <c r="H211" s="17"/>
+    </row>
+    <row r="212" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F212" s="17"/>
+      <c r="H212" s="17"/>
+    </row>
+    <row r="213" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F213" s="17"/>
+      <c r="H213" s="17"/>
+    </row>
+    <row r="214" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F214" s="17"/>
+      <c r="H214" s="17"/>
+    </row>
+    <row r="215" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F215" s="17"/>
+      <c r="H215" s="17"/>
+    </row>
+    <row r="216" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F216" s="17"/>
+      <c r="H216" s="17"/>
+    </row>
+    <row r="217" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F217" s="17"/>
+      <c r="H217" s="17"/>
+    </row>
+    <row r="218" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F218" s="17"/>
+      <c r="H218" s="17"/>
+    </row>
+    <row r="219" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F219" s="17"/>
+      <c r="H219" s="17"/>
+    </row>
+    <row r="220" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F220" s="17"/>
+      <c r="H220" s="17"/>
+    </row>
+    <row r="221" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F221" s="17"/>
+      <c r="H221" s="17"/>
+    </row>
+    <row r="222" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F222" s="17"/>
+      <c r="H222" s="17"/>
+    </row>
+    <row r="223" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F223" s="17"/>
+      <c r="H223" s="17"/>
+    </row>
+    <row r="224" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F224" s="17"/>
+      <c r="H224" s="17"/>
+    </row>
+    <row r="225" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F225" s="17"/>
+      <c r="H225" s="17"/>
+    </row>
+    <row r="226" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F226" s="17"/>
+      <c r="H226" s="17"/>
+    </row>
+    <row r="227" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F227" s="17"/>
+      <c r="H227" s="17"/>
+    </row>
+    <row r="228" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F228" s="17"/>
+      <c r="H228" s="17"/>
+    </row>
+    <row r="229" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F229" s="17"/>
+      <c r="H229" s="17"/>
+    </row>
+    <row r="230" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F230" s="17"/>
+      <c r="H230" s="17"/>
+    </row>
+    <row r="231" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F231" s="17"/>
+      <c r="H231" s="17"/>
+    </row>
+    <row r="232" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F232" s="17"/>
+      <c r="H232" s="17"/>
+    </row>
+    <row r="233" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F233" s="17"/>
+      <c r="H233" s="17"/>
+    </row>
+    <row r="234" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F234" s="17"/>
+      <c r="H234" s="17"/>
+    </row>
+    <row r="235" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F235" s="17"/>
+      <c r="H235" s="17"/>
+    </row>
+    <row r="236" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F236" s="17"/>
+      <c r="H236" s="17"/>
+    </row>
+    <row r="237" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F237" s="17"/>
+      <c r="H237" s="17"/>
+    </row>
+    <row r="238" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F238" s="17"/>
+      <c r="H238" s="17"/>
+    </row>
+    <row r="239" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F239" s="17"/>
+      <c r="H239" s="17"/>
+    </row>
+    <row r="240" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F240" s="17"/>
+      <c r="H240" s="17"/>
+    </row>
+    <row r="241" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F241" s="17"/>
+      <c r="H241" s="17"/>
+    </row>
+    <row r="242" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F242" s="17"/>
+      <c r="H242" s="17"/>
+    </row>
+    <row r="243" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F243" s="17"/>
+      <c r="H243" s="17"/>
+    </row>
+    <row r="244" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F244" s="17"/>
+      <c r="H244" s="17"/>
+    </row>
+    <row r="245" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F245" s="17"/>
+      <c r="H245" s="17"/>
+    </row>
+    <row r="246" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F246" s="17"/>
+      <c r="H246" s="17"/>
+    </row>
+    <row r="247" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F247" s="17"/>
+      <c r="H247" s="17"/>
+    </row>
+    <row r="248" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F248" s="17"/>
+      <c r="H248" s="17"/>
+    </row>
+    <row r="249" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F249" s="17"/>
+      <c r="H249" s="17"/>
+    </row>
+    <row r="250" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F250" s="17"/>
+      <c r="H250" s="17"/>
+    </row>
+    <row r="251" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F251" s="17"/>
+      <c r="H251" s="17"/>
+    </row>
+    <row r="252" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F252" s="17"/>
+      <c r="H252" s="17"/>
+    </row>
+    <row r="253" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F253" s="17"/>
+      <c r="H253" s="17"/>
+    </row>
+    <row r="254" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F254" s="17"/>
+      <c r="H254" s="17"/>
+    </row>
+    <row r="255" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F255" s="17"/>
+      <c r="H255" s="17"/>
+    </row>
+    <row r="256" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F256" s="17"/>
+      <c r="H256" s="17"/>
+    </row>
+    <row r="257" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F257" s="17"/>
+      <c r="H257" s="17"/>
+    </row>
+    <row r="258" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F258" s="17"/>
+      <c r="H258" s="17"/>
+    </row>
+    <row r="259" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F259" s="17"/>
+      <c r="H259" s="17"/>
+    </row>
+    <row r="260" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F260" s="17"/>
+      <c r="H260" s="17"/>
+    </row>
+    <row r="261" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F261" s="17"/>
+      <c r="H261" s="17"/>
+    </row>
+    <row r="262" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F262" s="17"/>
+      <c r="H262" s="17"/>
+    </row>
+    <row r="263" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F263" s="17"/>
+      <c r="H263" s="17"/>
+    </row>
+    <row r="264" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F264" s="17"/>
+      <c r="H264" s="17"/>
+    </row>
+    <row r="265" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F265" s="17"/>
+      <c r="H265" s="17"/>
+    </row>
+    <row r="266" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F266" s="17"/>
+      <c r="H266" s="17"/>
+    </row>
+    <row r="267" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F267" s="17"/>
+      <c r="H267" s="17"/>
+    </row>
+    <row r="268" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F268" s="17"/>
+      <c r="H268" s="17"/>
+    </row>
+    <row r="269" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F269" s="17"/>
+      <c r="H269" s="17"/>
+    </row>
+    <row r="270" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F270" s="17"/>
+      <c r="H270" s="17"/>
+    </row>
+    <row r="271" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F271" s="17"/>
+      <c r="H271" s="17"/>
+    </row>
+    <row r="272" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F272" s="17"/>
+      <c r="H272" s="17"/>
+    </row>
+    <row r="273" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F273" s="17"/>
+      <c r="H273" s="17"/>
+    </row>
+    <row r="274" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F274" s="17"/>
+      <c r="H274" s="17"/>
+    </row>
+    <row r="275" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F275" s="17"/>
+      <c r="H275" s="17"/>
+    </row>
+    <row r="276" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F276" s="17"/>
+      <c r="H276" s="17"/>
+    </row>
+    <row r="277" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F277" s="17"/>
+      <c r="H277" s="17"/>
+    </row>
+    <row r="278" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F278" s="17"/>
+      <c r="H278" s="17"/>
+    </row>
+    <row r="279" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F279" s="17"/>
+      <c r="H279" s="17"/>
+    </row>
+    <row r="280" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F280" s="17"/>
+      <c r="H280" s="17"/>
+    </row>
+    <row r="281" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F281" s="17"/>
+      <c r="H281" s="17"/>
+    </row>
+    <row r="282" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F282" s="17"/>
+      <c r="H282" s="17"/>
+    </row>
+    <row r="283" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F283" s="17"/>
+      <c r="H283" s="17"/>
+    </row>
+    <row r="284" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F284" s="17"/>
+      <c r="H284" s="17"/>
+    </row>
+    <row r="285" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F285" s="17"/>
+      <c r="H285" s="17"/>
+    </row>
+    <row r="286" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F286" s="17"/>
+      <c r="H286" s="17"/>
+    </row>
+    <row r="287" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F287" s="17"/>
+      <c r="H287" s="17"/>
+    </row>
+    <row r="288" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F288" s="17"/>
+      <c r="H288" s="17"/>
+    </row>
+    <row r="289" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F289" s="17"/>
+      <c r="H289" s="17"/>
+    </row>
+    <row r="290" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F290" s="17"/>
+      <c r="H290" s="17"/>
+    </row>
+    <row r="291" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F291" s="17"/>
+      <c r="H291" s="17"/>
+    </row>
+    <row r="292" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F292" s="17"/>
+      <c r="H292" s="17"/>
+    </row>
+    <row r="293" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F293" s="17"/>
+      <c r="H293" s="17"/>
+    </row>
+    <row r="294" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F294" s="17"/>
+      <c r="H294" s="17"/>
+    </row>
+    <row r="295" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F295" s="17"/>
+      <c r="H295" s="17"/>
+    </row>
+    <row r="296" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F296" s="17"/>
+      <c r="H296" s="17"/>
+    </row>
+    <row r="297" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F297" s="17"/>
+      <c r="H297" s="17"/>
+    </row>
+    <row r="298" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F298" s="17"/>
+      <c r="H298" s="17"/>
+    </row>
+    <row r="299" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F299" s="17"/>
+      <c r="H299" s="17"/>
+    </row>
+    <row r="300" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F300" s="17"/>
+      <c r="H300" s="17"/>
+    </row>
+    <row r="301" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F301" s="17"/>
+      <c r="H301" s="17"/>
+    </row>
+    <row r="302" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F302" s="17"/>
+      <c r="H302" s="17"/>
+    </row>
+    <row r="303" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F303" s="17"/>
+      <c r="H303" s="17"/>
+    </row>
+    <row r="304" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F304" s="17"/>
+      <c r="H304" s="17"/>
+    </row>
+    <row r="305" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F305" s="17"/>
+      <c r="H305" s="17"/>
+    </row>
+    <row r="306" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F306" s="17"/>
+      <c r="H306" s="17"/>
+    </row>
+    <row r="307" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F307" s="17"/>
+      <c r="H307" s="17"/>
+    </row>
+    <row r="308" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F308" s="17"/>
+      <c r="H308" s="17"/>
+    </row>
+    <row r="309" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F309" s="17"/>
+      <c r="H309" s="17"/>
+    </row>
+    <row r="310" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F310" s="17"/>
+      <c r="H310" s="17"/>
+    </row>
+    <row r="311" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F311" s="17"/>
+      <c r="H311" s="17"/>
+    </row>
+    <row r="312" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F312" s="17"/>
+      <c r="H312" s="17"/>
+    </row>
+    <row r="313" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F313" s="17"/>
+      <c r="H313" s="17"/>
+    </row>
+    <row r="314" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F314" s="17"/>
+      <c r="H314" s="17"/>
+    </row>
+    <row r="315" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F315" s="17"/>
+      <c r="H315" s="17"/>
+    </row>
+    <row r="316" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F316" s="17"/>
+      <c r="H316" s="17"/>
+    </row>
+    <row r="317" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F317" s="17"/>
+      <c r="H317" s="17"/>
+    </row>
+    <row r="318" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F318" s="17"/>
+      <c r="H318" s="17"/>
+    </row>
+    <row r="319" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F319" s="17"/>
+      <c r="H319" s="17"/>
+    </row>
+    <row r="320" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F320" s="17"/>
+      <c r="H320" s="17"/>
+    </row>
+    <row r="321" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F321" s="17"/>
+      <c r="H321" s="17"/>
+    </row>
+    <row r="322" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F322" s="17"/>
+      <c r="H322" s="17"/>
+    </row>
+    <row r="323" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F323" s="17"/>
+      <c r="H323" s="17"/>
+    </row>
+    <row r="324" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F324" s="17"/>
+      <c r="H324" s="17"/>
+    </row>
+    <row r="325" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F325" s="17"/>
+      <c r="H325" s="17"/>
+    </row>
+    <row r="326" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F326" s="17"/>
+      <c r="H326" s="17"/>
+    </row>
+    <row r="327" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F327" s="17"/>
+      <c r="H327" s="17"/>
+    </row>
+    <row r="328" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F328" s="17"/>
+      <c r="H328" s="17"/>
+    </row>
+    <row r="329" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F329" s="17"/>
+      <c r="H329" s="17"/>
+    </row>
+    <row r="330" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F330" s="17"/>
+      <c r="H330" s="17"/>
+    </row>
+    <row r="331" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F331" s="17"/>
+      <c r="H331" s="17"/>
+    </row>
+    <row r="332" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F332" s="17"/>
+      <c r="H332" s="17"/>
+    </row>
+    <row r="333" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F333" s="17"/>
+      <c r="H333" s="17"/>
+    </row>
+    <row r="334" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F334" s="17"/>
+      <c r="H334" s="17"/>
+    </row>
+    <row r="335" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F335" s="17"/>
+      <c r="H335" s="17"/>
+    </row>
+    <row r="336" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F336" s="17"/>
+      <c r="H336" s="17"/>
+    </row>
+    <row r="337" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F337" s="17"/>
+      <c r="H337" s="17"/>
+    </row>
+    <row r="338" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F338" s="17"/>
+      <c r="H338" s="17"/>
+    </row>
+    <row r="339" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F339" s="17"/>
+      <c r="H339" s="17"/>
+    </row>
+    <row r="340" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F340" s="17"/>
+      <c r="H340" s="17"/>
+    </row>
+    <row r="341" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F341" s="17"/>
+      <c r="H341" s="17"/>
+    </row>
+    <row r="342" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F342" s="17"/>
+      <c r="H342" s="17"/>
+    </row>
+    <row r="343" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F343" s="17"/>
+      <c r="H343" s="17"/>
+    </row>
+    <row r="344" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F344" s="17"/>
+      <c r="H344" s="17"/>
+    </row>
+    <row r="345" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F345" s="17"/>
+      <c r="H345" s="17"/>
+    </row>
+    <row r="346" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F346" s="17"/>
+      <c r="H346" s="17"/>
+    </row>
+    <row r="347" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F347" s="17"/>
+      <c r="H347" s="17"/>
+    </row>
+    <row r="348" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F348" s="17"/>
+      <c r="H348" s="17"/>
+    </row>
+    <row r="349" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F349" s="17"/>
+      <c r="H349" s="17"/>
+    </row>
+    <row r="350" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F350" s="17"/>
+      <c r="H350" s="17"/>
+    </row>
+    <row r="351" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F351" s="17"/>
+      <c r="H351" s="17"/>
+    </row>
+    <row r="352" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F352" s="17"/>
+      <c r="H352" s="17"/>
+    </row>
+    <row r="353" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F353" s="17"/>
+      <c r="H353" s="17"/>
+    </row>
+    <row r="354" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F354" s="17"/>
+      <c r="H354" s="17"/>
+    </row>
+    <row r="355" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F355" s="17"/>
+      <c r="H355" s="17"/>
+    </row>
+    <row r="356" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F356" s="17"/>
+      <c r="H356" s="17"/>
+    </row>
+    <row r="357" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F357" s="17"/>
+      <c r="H357" s="17"/>
+    </row>
+    <row r="358" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F358" s="17"/>
+      <c r="H358" s="17"/>
+    </row>
+    <row r="359" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F359" s="17"/>
+      <c r="H359" s="17"/>
+    </row>
+    <row r="360" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F360" s="17"/>
+      <c r="H360" s="17"/>
+    </row>
+    <row r="361" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F361" s="17"/>
+      <c r="H361" s="17"/>
+    </row>
+    <row r="362" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F362" s="17"/>
+      <c r="H362" s="17"/>
+    </row>
+    <row r="363" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F363" s="17"/>
+      <c r="H363" s="17"/>
+    </row>
+    <row r="364" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F364" s="17"/>
+      <c r="H364" s="17"/>
+    </row>
+    <row r="365" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F365" s="17"/>
+      <c r="H365" s="17"/>
+    </row>
+    <row r="366" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F366" s="17"/>
+      <c r="H366" s="17"/>
+    </row>
+    <row r="367" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F367" s="17"/>
+      <c r="H367" s="17"/>
+    </row>
+    <row r="368" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F368" s="17"/>
+      <c r="H368" s="17"/>
+    </row>
+    <row r="369" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F369" s="17"/>
+      <c r="H369" s="17"/>
+    </row>
+    <row r="370" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F370" s="17"/>
+      <c r="H370" s="17"/>
+    </row>
+    <row r="371" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F371" s="17"/>
+      <c r="H371" s="17"/>
+    </row>
+    <row r="372" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F372" s="17"/>
+      <c r="H372" s="17"/>
+    </row>
+    <row r="373" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F373" s="17"/>
+      <c r="H373" s="17"/>
+    </row>
+    <row r="374" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F374" s="17"/>
+      <c r="H374" s="17"/>
+    </row>
+    <row r="375" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F375" s="17"/>
+      <c r="H375" s="17"/>
+    </row>
+    <row r="376" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F376" s="17"/>
+      <c r="H376" s="17"/>
+    </row>
+    <row r="377" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F377" s="17"/>
+      <c r="H377" s="17"/>
+    </row>
+    <row r="378" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F378" s="17"/>
+      <c r="H378" s="17"/>
+    </row>
+    <row r="379" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F379" s="17"/>
+      <c r="H379" s="17"/>
+    </row>
+    <row r="380" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F380" s="17"/>
+      <c r="H380" s="17"/>
+    </row>
+    <row r="381" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F381" s="17"/>
+      <c r="H381" s="17"/>
+    </row>
+    <row r="382" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F382" s="17"/>
+      <c r="H382" s="17"/>
+    </row>
+    <row r="383" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F383" s="17"/>
+      <c r="H383" s="17"/>
+    </row>
+    <row r="384" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F384" s="17"/>
+      <c r="H384" s="17"/>
+    </row>
+    <row r="385" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F385" s="17"/>
+      <c r="H385" s="17"/>
+    </row>
+    <row r="386" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F386" s="17"/>
+      <c r="H386" s="17"/>
+    </row>
+    <row r="387" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F387" s="17"/>
+      <c r="H387" s="17"/>
+    </row>
+    <row r="388" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F388" s="17"/>
+      <c r="H388" s="17"/>
+    </row>
+    <row r="389" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F389" s="17"/>
+      <c r="H389" s="17"/>
+    </row>
+    <row r="390" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F390" s="17"/>
+      <c r="H390" s="17"/>
+    </row>
+    <row r="391" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F391" s="17"/>
+      <c r="H391" s="17"/>
+    </row>
+    <row r="392" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F392" s="17"/>
+      <c r="H392" s="17"/>
+    </row>
+    <row r="393" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F393" s="17"/>
+      <c r="H393" s="17"/>
+    </row>
+    <row r="394" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F394" s="17"/>
+      <c r="H394" s="17"/>
+    </row>
+    <row r="395" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F395" s="17"/>
+      <c r="H395" s="17"/>
+    </row>
+    <row r="396" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F396" s="17"/>
+      <c r="H396" s="17"/>
+    </row>
+    <row r="397" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F397" s="17"/>
+      <c r="H397" s="17"/>
+    </row>
+    <row r="398" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F398" s="17"/>
+      <c r="H398" s="17"/>
+    </row>
+    <row r="399" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F399" s="17"/>
+      <c r="H399" s="17"/>
+    </row>
+    <row r="400" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F400" s="17"/>
+      <c r="H400" s="17"/>
+    </row>
+    <row r="401" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F401" s="17"/>
+      <c r="H401" s="17"/>
+    </row>
+    <row r="402" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F402" s="17"/>
+      <c r="H402" s="17"/>
+    </row>
+    <row r="403" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F403" s="17"/>
+      <c r="H403" s="17"/>
+    </row>
+    <row r="404" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F404" s="17"/>
+      <c r="H404" s="17"/>
+    </row>
+    <row r="405" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F405" s="17"/>
+      <c r="H405" s="17"/>
+    </row>
+    <row r="406" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F406" s="17"/>
+      <c r="H406" s="17"/>
+    </row>
+    <row r="407" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F407" s="17"/>
+      <c r="H407" s="17"/>
+    </row>
+    <row r="408" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F408" s="17"/>
+      <c r="H408" s="17"/>
+    </row>
+    <row r="409" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F409" s="17"/>
+      <c r="H409" s="17"/>
+    </row>
+    <row r="410" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F410" s="17"/>
+      <c r="H410" s="17"/>
+    </row>
+    <row r="411" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F411" s="17"/>
+      <c r="H411" s="17"/>
+    </row>
+    <row r="412" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F412" s="17"/>
+      <c r="H412" s="17"/>
+    </row>
+    <row r="413" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F413" s="17"/>
+      <c r="H413" s="17"/>
+    </row>
+    <row r="414" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F414" s="17"/>
+      <c r="H414" s="17"/>
+    </row>
+    <row r="415" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F415" s="17"/>
+      <c r="H415" s="17"/>
+    </row>
+    <row r="416" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F416" s="17"/>
+      <c r="H416" s="17"/>
+    </row>
+    <row r="417" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F417" s="17"/>
+      <c r="H417" s="17"/>
+    </row>
+    <row r="418" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F418" s="17"/>
+      <c r="H418" s="17"/>
+    </row>
+    <row r="419" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F419" s="17"/>
+      <c r="H419" s="17"/>
+    </row>
+    <row r="420" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F420" s="17"/>
+      <c r="H420" s="17"/>
+    </row>
+    <row r="421" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F421" s="17"/>
+      <c r="H421" s="17"/>
+    </row>
+    <row r="422" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F422" s="17"/>
+      <c r="H422" s="17"/>
+    </row>
+    <row r="423" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F423" s="17"/>
+      <c r="H423" s="17"/>
+    </row>
+    <row r="424" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F424" s="17"/>
+      <c r="H424" s="17"/>
+    </row>
+    <row r="425" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F425" s="17"/>
+      <c r="H425" s="17"/>
+    </row>
+    <row r="426" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F426" s="17"/>
+      <c r="H426" s="17"/>
+    </row>
+    <row r="427" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F427" s="17"/>
+      <c r="H427" s="17"/>
+    </row>
+    <row r="428" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F428" s="17"/>
+      <c r="H428" s="17"/>
+    </row>
+    <row r="429" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F429" s="17"/>
+      <c r="H429" s="17"/>
+    </row>
+    <row r="430" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F430" s="17"/>
+      <c r="H430" s="17"/>
+    </row>
+    <row r="431" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F431" s="17"/>
+      <c r="H431" s="17"/>
+    </row>
+    <row r="432" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F432" s="17"/>
+      <c r="H432" s="17"/>
+    </row>
+    <row r="433" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F433" s="17"/>
+      <c r="H433" s="17"/>
+    </row>
+    <row r="434" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F434" s="17"/>
+      <c r="H434" s="17"/>
+    </row>
+    <row r="435" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F435" s="17"/>
+      <c r="H435" s="17"/>
+    </row>
+    <row r="436" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F436" s="17"/>
+      <c r="H436" s="17"/>
+    </row>
+    <row r="437" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F437" s="17"/>
+      <c r="H437" s="17"/>
+    </row>
+    <row r="438" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F438" s="17"/>
+      <c r="H438" s="17"/>
+    </row>
+    <row r="439" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F439" s="17"/>
+      <c r="H439" s="17"/>
+    </row>
+    <row r="440" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F440" s="17"/>
+      <c r="H440" s="17"/>
+    </row>
+    <row r="441" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F441" s="17"/>
+      <c r="H441" s="17"/>
+    </row>
+    <row r="442" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F442" s="17"/>
+      <c r="H442" s="17"/>
+    </row>
+    <row r="443" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F443" s="17"/>
+      <c r="H443" s="17"/>
+    </row>
+    <row r="444" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F444" s="17"/>
+      <c r="H444" s="17"/>
+    </row>
+    <row r="445" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F445" s="17"/>
+      <c r="H445" s="17"/>
+    </row>
+    <row r="446" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F446" s="17"/>
+      <c r="H446" s="17"/>
+    </row>
+    <row r="447" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F447" s="17"/>
+      <c r="H447" s="17"/>
+    </row>
+    <row r="448" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F448" s="17"/>
+      <c r="H448" s="17"/>
+    </row>
+    <row r="449" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F449" s="17"/>
+      <c r="H449" s="17"/>
+    </row>
+    <row r="450" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F450" s="17"/>
+      <c r="H450" s="17"/>
+    </row>
+    <row r="451" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F451" s="17"/>
+      <c r="H451" s="17"/>
+    </row>
+    <row r="452" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F452" s="17"/>
+      <c r="H452" s="17"/>
+    </row>
+    <row r="453" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F453" s="17"/>
+      <c r="H453" s="17"/>
+    </row>
+    <row r="454" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F454" s="17"/>
+      <c r="H454" s="17"/>
+    </row>
+    <row r="455" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F455" s="17"/>
+      <c r="H455" s="17"/>
+    </row>
+    <row r="456" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F456" s="17"/>
+      <c r="H456" s="17"/>
+    </row>
+    <row r="457" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F457" s="17"/>
+      <c r="H457" s="17"/>
+    </row>
+    <row r="458" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F458" s="17"/>
+      <c r="H458" s="17"/>
+    </row>
+    <row r="459" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F459" s="17"/>
+      <c r="H459" s="17"/>
+    </row>
+    <row r="460" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F460" s="17"/>
+      <c r="H460" s="17"/>
+    </row>
+    <row r="461" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F461" s="17"/>
+      <c r="H461" s="17"/>
+    </row>
+    <row r="462" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F462" s="17"/>
+      <c r="H462" s="17"/>
+    </row>
+    <row r="463" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F463" s="17"/>
+      <c r="H463" s="17"/>
+    </row>
+    <row r="464" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F464" s="17"/>
+      <c r="H464" s="17"/>
+    </row>
+    <row r="465" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F465" s="17"/>
+      <c r="H465" s="17"/>
+    </row>
+    <row r="466" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F466" s="17"/>
+      <c r="H466" s="17"/>
+    </row>
+    <row r="467" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F467" s="17"/>
+      <c r="H467" s="17"/>
+    </row>
+    <row r="468" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F468" s="17"/>
+      <c r="H468" s="17"/>
+    </row>
+    <row r="469" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F469" s="17"/>
+      <c r="H469" s="17"/>
+    </row>
+    <row r="470" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F470" s="17"/>
+      <c r="H470" s="17"/>
+    </row>
+    <row r="471" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F471" s="17"/>
+      <c r="H471" s="17"/>
+    </row>
+    <row r="472" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F472" s="17"/>
+      <c r="H472" s="17"/>
+    </row>
+    <row r="473" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F473" s="17"/>
+      <c r="H473" s="17"/>
+    </row>
+    <row r="474" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F474" s="17"/>
+      <c r="H474" s="17"/>
+    </row>
+    <row r="475" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F475" s="17"/>
+      <c r="H475" s="17"/>
+    </row>
+    <row r="476" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F476" s="17"/>
+      <c r="H476" s="17"/>
+    </row>
+    <row r="477" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F477" s="17"/>
+      <c r="H477" s="17"/>
+    </row>
+    <row r="478" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F478" s="17"/>
+      <c r="H478" s="17"/>
+    </row>
+    <row r="479" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F479" s="17"/>
+      <c r="H479" s="17"/>
+    </row>
+    <row r="480" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F480" s="17"/>
+      <c r="H480" s="17"/>
+    </row>
+    <row r="481" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F481" s="17"/>
+      <c r="H481" s="17"/>
+    </row>
+    <row r="482" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F482" s="17"/>
+      <c r="H482" s="17"/>
+    </row>
+    <row r="483" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F483" s="17"/>
+      <c r="H483" s="17"/>
+    </row>
+    <row r="484" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F484" s="17"/>
+      <c r="H484" s="17"/>
+    </row>
+    <row r="485" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F485" s="17"/>
+      <c r="H485" s="17"/>
+    </row>
+    <row r="486" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F486" s="17"/>
+      <c r="H486" s="17"/>
+    </row>
+    <row r="487" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F487" s="17"/>
+      <c r="H487" s="17"/>
+    </row>
+    <row r="488" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F488" s="17"/>
+      <c r="H488" s="17"/>
+    </row>
+    <row r="489" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F489" s="17"/>
+      <c r="H489" s="17"/>
+    </row>
+    <row r="490" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F490" s="17"/>
+      <c r="H490" s="17"/>
+    </row>
+    <row r="491" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F491" s="17"/>
+      <c r="H491" s="17"/>
+    </row>
+    <row r="492" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F492" s="17"/>
+      <c r="H492" s="17"/>
+    </row>
+    <row r="493" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F493" s="17"/>
+      <c r="H493" s="17"/>
+    </row>
+    <row r="494" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F494" s="17"/>
+      <c r="H494" s="17"/>
+    </row>
+    <row r="495" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F495" s="17"/>
+      <c r="H495" s="17"/>
+    </row>
+    <row r="496" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F496" s="17"/>
+      <c r="H496" s="17"/>
+    </row>
+    <row r="497" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F497" s="17"/>
+      <c r="H497" s="17"/>
+    </row>
+    <row r="498" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F498" s="17"/>
+      <c r="H498" s="17"/>
+    </row>
+    <row r="499" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F499" s="17"/>
+      <c r="H499" s="17"/>
+    </row>
+    <row r="500" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F500" s="17"/>
+      <c r="H500" s="17"/>
+    </row>
+    <row r="501" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F501" s="17"/>
+      <c r="H501" s="17"/>
+    </row>
+    <row r="502" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F502" s="17"/>
+      <c r="H502" s="17"/>
+    </row>
+    <row r="503" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F503" s="17"/>
+      <c r="H503" s="17"/>
+    </row>
+    <row r="504" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F504" s="17"/>
+      <c r="H504" s="17"/>
+    </row>
+    <row r="505" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F505" s="17"/>
+      <c r="H505" s="17"/>
+    </row>
+    <row r="506" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F506" s="17"/>
+      <c r="H506" s="17"/>
+    </row>
+    <row r="507" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F507" s="17"/>
+      <c r="H507" s="17"/>
+    </row>
+    <row r="508" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F508" s="17"/>
+      <c r="H508" s="17"/>
+    </row>
+    <row r="509" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F509" s="17"/>
+      <c r="H509" s="17"/>
+    </row>
+    <row r="510" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F510" s="17"/>
+      <c r="H510" s="17"/>
+    </row>
+    <row r="511" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F511" s="17"/>
+      <c r="H511" s="17"/>
+    </row>
+    <row r="512" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F512" s="17"/>
+      <c r="H512" s="17"/>
+    </row>
+    <row r="513" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F513" s="17"/>
+      <c r="H513" s="17"/>
+    </row>
+    <row r="514" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F514" s="17"/>
+      <c r="H514" s="17"/>
+    </row>
+    <row r="515" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F515" s="17"/>
+      <c r="H515" s="17"/>
+    </row>
+    <row r="516" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F516" s="17"/>
+      <c r="H516" s="17"/>
+    </row>
+    <row r="517" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F517" s="17"/>
+      <c r="H517" s="17"/>
+    </row>
+    <row r="518" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F518" s="17"/>
+      <c r="H518" s="17"/>
+    </row>
+    <row r="519" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F519" s="17"/>
+      <c r="H519" s="17"/>
+    </row>
+    <row r="520" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F520" s="17"/>
+      <c r="H520" s="17"/>
+    </row>
+    <row r="521" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F521" s="17"/>
+      <c r="H521" s="17"/>
+    </row>
+    <row r="522" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F522" s="17"/>
+      <c r="H522" s="17"/>
+    </row>
+    <row r="523" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F523" s="17"/>
+      <c r="H523" s="17"/>
+    </row>
+    <row r="524" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F524" s="17"/>
+      <c r="H524" s="17"/>
+    </row>
+    <row r="525" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F525" s="17"/>
+      <c r="H525" s="17"/>
+    </row>
+    <row r="526" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F526" s="17"/>
+      <c r="H526" s="17"/>
+    </row>
+    <row r="527" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F527" s="17"/>
+      <c r="H527" s="17"/>
+    </row>
+    <row r="528" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F528" s="17"/>
+      <c r="H528" s="17"/>
+    </row>
+    <row r="529" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F529" s="17"/>
+      <c r="H529" s="17"/>
+    </row>
+    <row r="530" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F530" s="17"/>
+      <c r="H530" s="17"/>
+    </row>
+    <row r="531" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F531" s="17"/>
+      <c r="H531" s="17"/>
+    </row>
+    <row r="532" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F532" s="17"/>
+      <c r="H532" s="17"/>
+    </row>
+    <row r="533" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F533" s="17"/>
+      <c r="H533" s="17"/>
+    </row>
+    <row r="534" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F534" s="17"/>
+      <c r="H534" s="17"/>
+    </row>
+    <row r="535" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F535" s="17"/>
+      <c r="H535" s="17"/>
+    </row>
+    <row r="536" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F536" s="17"/>
+      <c r="H536" s="17"/>
+    </row>
+    <row r="537" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F537" s="17"/>
+      <c r="H537" s="17"/>
+    </row>
+    <row r="538" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F538" s="17"/>
+      <c r="H538" s="17"/>
+    </row>
+    <row r="539" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F539" s="17"/>
+      <c r="H539" s="17"/>
+    </row>
+    <row r="540" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F540" s="17"/>
+      <c r="H540" s="17"/>
+    </row>
+    <row r="541" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F541" s="17"/>
+      <c r="H541" s="17"/>
+    </row>
+    <row r="542" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F542" s="17"/>
+      <c r="H542" s="17"/>
+    </row>
+    <row r="543" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F543" s="17"/>
+      <c r="H543" s="17"/>
+    </row>
+    <row r="544" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F544" s="17"/>
+      <c r="H544" s="17"/>
+    </row>
+    <row r="545" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F545" s="17"/>
+      <c r="H545" s="17"/>
+    </row>
+    <row r="546" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F546" s="17"/>
+      <c r="H546" s="17"/>
+    </row>
+    <row r="547" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F547" s="17"/>
+      <c r="H547" s="17"/>
+    </row>
+    <row r="548" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F548" s="17"/>
+      <c r="H548" s="17"/>
+    </row>
+    <row r="549" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F549" s="17"/>
+      <c r="H549" s="17"/>
+    </row>
+    <row r="550" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F550" s="17"/>
+      <c r="H550" s="17"/>
+    </row>
+    <row r="551" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F551" s="17"/>
+      <c r="H551" s="17"/>
+    </row>
+    <row r="552" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F552" s="17"/>
+      <c r="H552" s="17"/>
+    </row>
+    <row r="553" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F553" s="17"/>
+      <c r="H553" s="17"/>
+    </row>
+    <row r="554" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F554" s="17"/>
+      <c r="H554" s="17"/>
+    </row>
+    <row r="555" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F555" s="17"/>
+      <c r="H555" s="17"/>
+    </row>
+    <row r="556" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F556" s="17"/>
+      <c r="H556" s="17"/>
+    </row>
+    <row r="557" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F557" s="17"/>
+      <c r="H557" s="17"/>
+    </row>
+    <row r="558" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F558" s="17"/>
+      <c r="H558" s="17"/>
+    </row>
+    <row r="559" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F559" s="17"/>
+      <c r="H559" s="17"/>
+    </row>
+    <row r="560" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F560" s="17"/>
+      <c r="H560" s="17"/>
+    </row>
+    <row r="561" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F561" s="17"/>
+      <c r="H561" s="17"/>
+    </row>
+    <row r="562" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F562" s="17"/>
+      <c r="H562" s="17"/>
+    </row>
+    <row r="563" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F563" s="17"/>
+      <c r="H563" s="17"/>
+    </row>
+    <row r="564" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F564" s="17"/>
+      <c r="H564" s="17"/>
+    </row>
+    <row r="565" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F565" s="17"/>
+      <c r="H565" s="17"/>
+    </row>
+    <row r="566" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F566" s="17"/>
+      <c r="H566" s="17"/>
+    </row>
+    <row r="567" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F567" s="17"/>
+      <c r="H567" s="17"/>
+    </row>
+    <row r="568" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F568" s="17"/>
+      <c r="H568" s="17"/>
+    </row>
+    <row r="569" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F569" s="17"/>
+      <c r="H569" s="17"/>
+    </row>
+    <row r="570" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F570" s="17"/>
+      <c r="H570" s="17"/>
+    </row>
+    <row r="571" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F571" s="17"/>
+      <c r="H571" s="17"/>
+    </row>
+    <row r="572" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F572" s="17"/>
+      <c r="H572" s="17"/>
+    </row>
+    <row r="573" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F573" s="17"/>
+      <c r="H573" s="17"/>
+    </row>
+    <row r="574" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F574" s="17"/>
+      <c r="H574" s="17"/>
+    </row>
+    <row r="575" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F575" s="17"/>
+      <c r="H575" s="17"/>
+    </row>
+    <row r="576" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F576" s="17"/>
+      <c r="H576" s="17"/>
+    </row>
+    <row r="577" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F577" s="17"/>
+      <c r="H577" s="17"/>
+    </row>
+    <row r="578" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F578" s="17"/>
+      <c r="H578" s="17"/>
+    </row>
+    <row r="579" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F579" s="17"/>
+      <c r="H579" s="17"/>
+    </row>
+    <row r="580" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F580" s="17"/>
+      <c r="H580" s="17"/>
+    </row>
+    <row r="581" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F581" s="17"/>
+      <c r="H581" s="17"/>
+    </row>
+    <row r="582" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F582" s="17"/>
+      <c r="H582" s="17"/>
+    </row>
+    <row r="583" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F583" s="17"/>
+      <c r="H583" s="17"/>
+    </row>
+    <row r="584" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F584" s="17"/>
+      <c r="H584" s="17"/>
+    </row>
+    <row r="585" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F585" s="17"/>
+      <c r="H585" s="17"/>
+    </row>
+    <row r="586" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F586" s="17"/>
+      <c r="H586" s="17"/>
+    </row>
+    <row r="587" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F587" s="17"/>
+      <c r="H587" s="17"/>
+    </row>
+    <row r="588" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F588" s="17"/>
+      <c r="H588" s="17"/>
+    </row>
+    <row r="589" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F589" s="17"/>
+      <c r="H589" s="17"/>
+    </row>
+    <row r="590" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F590" s="17"/>
+      <c r="H590" s="17"/>
+    </row>
+    <row r="591" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F591" s="17"/>
+      <c r="H591" s="17"/>
+    </row>
+    <row r="592" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F592" s="17"/>
+      <c r="H592" s="17"/>
+    </row>
+    <row r="593" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F593" s="17"/>
+      <c r="H593" s="17"/>
+    </row>
+    <row r="594" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F594" s="17"/>
+      <c r="H594" s="17"/>
+    </row>
+    <row r="595" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F595" s="17"/>
+      <c r="H595" s="17"/>
+    </row>
+    <row r="596" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F596" s="17"/>
+      <c r="H596" s="17"/>
+    </row>
+    <row r="597" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F597" s="17"/>
+      <c r="H597" s="17"/>
+    </row>
+    <row r="598" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F598" s="17"/>
+      <c r="H598" s="17"/>
+    </row>
+    <row r="599" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F599" s="17"/>
+      <c r="H599" s="17"/>
+    </row>
+    <row r="600" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F600" s="17"/>
+      <c r="H600" s="17"/>
+    </row>
+    <row r="601" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F601" s="17"/>
+      <c r="H601" s="17"/>
+    </row>
+    <row r="602" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F602" s="17"/>
+      <c r="H602" s="17"/>
+    </row>
+    <row r="603" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F603" s="17"/>
+      <c r="H603" s="17"/>
+    </row>
+    <row r="604" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F604" s="17"/>
+      <c r="H604" s="17"/>
+    </row>
+    <row r="605" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F605" s="17"/>
+      <c r="H605" s="17"/>
+    </row>
+    <row r="606" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F606" s="17"/>
+      <c r="H606" s="17"/>
+    </row>
+    <row r="607" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F607" s="17"/>
+      <c r="H607" s="17"/>
+    </row>
+    <row r="608" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F608" s="17"/>
+      <c r="H608" s="17"/>
+    </row>
+    <row r="609" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F609" s="17"/>
+      <c r="H609" s="17"/>
+    </row>
+    <row r="610" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F610" s="17"/>
+      <c r="H610" s="17"/>
+    </row>
+    <row r="611" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F611" s="17"/>
+      <c r="H611" s="17"/>
+    </row>
+    <row r="612" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F612" s="17"/>
+      <c r="H612" s="17"/>
+    </row>
+    <row r="613" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F613" s="17"/>
+      <c r="H613" s="17"/>
+    </row>
+    <row r="614" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F614" s="17"/>
+      <c r="H614" s="17"/>
+    </row>
+    <row r="615" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F615" s="17"/>
+      <c r="H615" s="17"/>
+    </row>
+    <row r="616" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F616" s="17"/>
+      <c r="H616" s="17"/>
+    </row>
+    <row r="617" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F617" s="17"/>
+      <c r="H617" s="17"/>
+    </row>
+    <row r="618" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F618" s="17"/>
+      <c r="H618" s="17"/>
+    </row>
+    <row r="619" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F619" s="17"/>
+      <c r="H619" s="17"/>
+    </row>
+    <row r="620" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F620" s="17"/>
+      <c r="H620" s="17"/>
+    </row>
+    <row r="621" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F621" s="17"/>
+      <c r="H621" s="17"/>
+    </row>
+    <row r="622" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F622" s="17"/>
+      <c r="H622" s="17"/>
+    </row>
+    <row r="623" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F623" s="17"/>
+      <c r="H623" s="17"/>
+    </row>
+    <row r="624" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F624" s="17"/>
+      <c r="H624" s="17"/>
+    </row>
+    <row r="625" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F625" s="17"/>
+      <c r="H625" s="17"/>
+    </row>
+    <row r="626" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F626" s="17"/>
+      <c r="H626" s="17"/>
+    </row>
+    <row r="627" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F627" s="17"/>
+      <c r="H627" s="17"/>
+    </row>
+    <row r="628" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F628" s="17"/>
+      <c r="H628" s="17"/>
+    </row>
+    <row r="629" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F629" s="17"/>
+      <c r="H629" s="17"/>
+    </row>
+    <row r="630" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F630" s="17"/>
+      <c r="H630" s="17"/>
+    </row>
+    <row r="631" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F631" s="17"/>
+      <c r="H631" s="17"/>
+    </row>
+    <row r="632" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="H632" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BD.xlsx
+++ b/BD.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DNS\OneDrive\Visual Studio 2019\Projects\Python\Чат-боты\IRNITU_bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="6_{004BAC0E-B5C2-472C-9421-9C06C711B409}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B538E41-5A62-40FF-933C-AD99FDA6384E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="6_{63CD0CE0-EC24-4A07-961E-608F3A3D7340}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{3F14DD23-0FBB-4379-A7CD-B946D8E2E719}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,12 @@
     <sheet name="Расписание кабинета" sheetId="4" r:id="rId4"/>
     <sheet name="Информация для посетителей" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>Наименование оборудования</t>
   </si>
@@ -200,34 +200,40 @@
     <t>Дата</t>
   </si>
   <si>
+    <t>Иванов Иван Иванович</t>
+  </si>
+  <si>
     <t>Вт</t>
   </si>
   <si>
     <t>Чт</t>
   </si>
   <si>
-    <t>Иванов Иван Иванович</t>
+    <t>Антонов Антон Антонович</t>
   </si>
   <si>
     <t>Петров Петр Петрович</t>
   </si>
   <si>
+    <t>Дмитриев Дмитрий Дмитриевич</t>
+  </si>
+  <si>
     <t>Сидоров Сергей Сергеевич</t>
   </si>
   <si>
-    <t>ср</t>
-  </si>
-  <si>
-    <t>пт</t>
-  </si>
-  <si>
-    <t>ЧТ</t>
-  </si>
-  <si>
-    <t>Антонов Антон Антонович</t>
-  </si>
-  <si>
-    <t>Дмитриев Дмитрий Дмитриевич</t>
+    <t>Сб</t>
+  </si>
+  <si>
+    <t>Только по предварительной договоренности</t>
+  </si>
+  <si>
+    <t>Недоступен до 20.02.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">На техобслуживании </t>
+  </si>
+  <si>
+    <t>Пт</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,13 +839,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="2" max="2" width="40.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -869,15 +875,21 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -888,6 +900,9 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -932,7 +947,7 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>50.5</v>
+        <v>48.5</v>
       </c>
       <c r="C2" t="s">
         <v>26</v>
@@ -943,7 +958,7 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>51.5</v>
+        <v>48.5</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
@@ -954,7 +969,7 @@
         <v>28</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -1009,7 +1024,7 @@
         <v>35</v>
       </c>
       <c r="B9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -1020,7 +1035,7 @@
         <v>36</v>
       </c>
       <c r="B10">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>34</v>
@@ -1085,11 +1100,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40882760-FD24-4293-9260-6D4BE81BD92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M632"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1172,19 +1187,19 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>12345678</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F3" s="17">
         <v>0.625</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H3" s="17">
         <v>0.72916666666666663</v>
@@ -1193,33 +1208,33 @@
         <v>310</v>
       </c>
       <c r="J3" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>87654321</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F4" s="17">
         <v>0.5625</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H4" s="17">
-        <v>0.5625</v>
+        <v>0.49652777777777773</v>
       </c>
       <c r="I4">
         <v>312</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>2000</v>
@@ -1227,19 +1242,19 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>11111111</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="17">
         <v>0.625</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H5" s="17">
         <v>0.72916666666666663</v>
@@ -1248,13 +1263,13 @@
         <v>310</v>
       </c>
       <c r="J5" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K5">
         <v>1500</v>
       </c>
       <c r="L5" s="16">
-        <v>43784</v>
+        <v>43814</v>
       </c>
       <c r="M5" s="14">
         <v>0.70833333333333337</v>
@@ -3769,6 +3784,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>